--- a/template2.xlsx
+++ b/template2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Должность</t>
   </si>
@@ -28,9 +28,18 @@
     <t xml:space="preserve">Дата заполнения</t>
   </si>
   <si>
+    <t xml:space="preserve">#Q00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$submitdate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Фамилия, имя, отчество</t>
   </si>
   <si>
+    <t xml:space="preserve">#Q01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дата рождения</t>
   </si>
   <si>
@@ -40,6 +49,15 @@
     <t xml:space="preserve">Адрес проживания</t>
   </si>
   <si>
+    <t xml:space="preserve">$Q02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q09</t>
+  </si>
+  <si>
     <t xml:space="preserve">Номер телефона</t>
   </si>
   <si>
@@ -47,6 +65,120 @@
   </si>
   <si>
     <t xml:space="preserve">Кол-во детей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+Q13,Q14=A1|холост/незамужем|A2|женат/замужем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Служба в армии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Военный билет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобиль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Водительское удост.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Угол ответств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Q101=A1|да|A2|нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Q102=A1|есть|A2|нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Q105=A1|есть|A2|нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Q103=A1|есть|A2|нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Q112=Y|да|N|нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паспортные данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q18,Q19,Q20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хрон заболеван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарплата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Источник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Образование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q21L1,Q22L1,Q23L1,Q24L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q21L2,Q22L2,Q23L2,Q24L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сильные стороны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слабые стороны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опыт работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q121A1,Q122A1,Q123A1,Q124A1,Q125A1,Q126A1,Q127A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q121A2,Q122A2,Q123A2,Q124A2,Q125A2,Q126A2,Q127A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q121A3,Q122A3,Q123A3,Q124A3,Q125A3,Q126A3,Q127A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рекомендатели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доп сведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q131[SQ001],Q131[SQ002],Q131[SQ003],Q131[SQ004]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Q141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Q132[SQ001],Q132[SQ002],Q132[SQ003],Q132[SQ004]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начало работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Q142</t>
   </si>
 </sst>
 </file>
@@ -159,7 +291,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,7 +312,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,19 +320,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,16 +344,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -245,19 +373,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="32:34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.9642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -272,14 +401,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="7" t="n">
-        <v>1</v>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -290,137 +419,360 @@
       <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="36">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>